--- a/extras/BOMV2.xlsx
+++ b/extras/BOMV2.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Trujillo\Documents\Thesis\extras\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B5D1B8B-5663-4895-ADE6-B54CE5320F5C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB1AB21D-ED5C-40EE-8752-141E7186A083}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{7319056F-CA78-4255-87F3-CCC1DAC46B99}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{7319056F-CA78-4255-87F3-CCC1DAC46B99}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
   <si>
     <t>Bill of materials</t>
   </si>
@@ -106,6 +107,33 @@
   </si>
   <si>
     <t>https://www.arrow.com/es-mx/products/amt102-v/cui-inc</t>
+  </si>
+  <si>
+    <t>Enlace</t>
+  </si>
+  <si>
+    <t>Descuento</t>
+  </si>
+  <si>
+    <t>Envío</t>
+  </si>
+  <si>
+    <t>Turnigy Aerodrive SK3 - 5065 - 275kv</t>
+  </si>
+  <si>
+    <t>https://hobbyking.com/es_es/turnigy-aerodrive-sk3-5065-275kv-brushless-outrunner-motor.html</t>
+  </si>
+  <si>
+    <t>Odrive board v3.6</t>
+  </si>
+  <si>
+    <t>Servicio</t>
+  </si>
+  <si>
+    <t>DHL Express</t>
+  </si>
+  <si>
+    <t>USPS</t>
   </si>
 </sst>
 </file>
@@ -156,12 +184,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -169,11 +198,16 @@
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentaje" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -487,7 +521,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB50DA42-F377-4B93-9260-6AD9F20D5189}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -569,7 +603,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="4">
-        <f t="shared" ref="E5:E7" si="0">(C5*A5)+D5</f>
+        <f t="shared" ref="E5:E6" si="0">(C5*A5)+D5</f>
         <v>141.42000000000002</v>
       </c>
       <c r="F5" t="s">
@@ -699,4 +733,190 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId7"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90F5CC85-304A-472C-81F4-53AD9F111B6B}">
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="32.7265625" customWidth="1"/>
+    <col min="7" max="7" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="3">
+        <v>60.31</v>
+      </c>
+      <c r="E2" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="F2" s="3">
+        <v>21.87</v>
+      </c>
+      <c r="G2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="3">
+        <f>(A2*D2)-((A2*D2)*E2)+F2</f>
+        <v>130.428</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3">
+        <v>129</v>
+      </c>
+      <c r="E3" s="6">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3">
+        <v>23.61</v>
+      </c>
+      <c r="G3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="3">
+        <f>(A3*D3)-((A3*D3)*E3)+F3</f>
+        <v>152.61000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D4" s="3"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D5" s="3"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D6" s="3"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D7" s="3"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D8" s="3"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D9" s="3"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D10" s="3"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D11" s="3"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D12" s="3"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D13" s="3"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D14" s="3"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="4">
+        <f>SUM(H2:H3)</f>
+        <v>283.03800000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D15" s="3"/>
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D16" s="3"/>
+      <c r="E16" s="6"/>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E17" s="6"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{6F12C7A5-B02F-4E6E-A694-A10C0A1FCA75}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{3D473788-9556-40D4-921D-0F7AF3640AA9}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
+</worksheet>
 </file>
--- a/extras/BOMV2.xlsx
+++ b/extras/BOMV2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Trujillo\Documents\Thesis\extras\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB1AB21D-ED5C-40EE-8752-141E7186A083}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F523CFBC-0F35-44D7-A158-C8DA575442BF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{7319056F-CA78-4255-87F3-CCC1DAC46B99}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
   <si>
     <t>Bill of materials</t>
   </si>
@@ -134,6 +134,27 @@
   </si>
   <si>
     <t>USPS</t>
+  </si>
+  <si>
+    <t>Raspberry Pi 4 2 GB</t>
+  </si>
+  <si>
+    <t>https://www.mouser.mx/ProductDetail/ams/AS5047P-TS_EK_AB?qs=sGAEpiMZZMvc81WFyF5Eds5HfNOHCyjSQ7yI0JZudxs%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.mx/ProductDetail/358-RPI4MODBP2GBBULK</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Encoder magnético AS5047P</t>
+  </si>
+  <si>
+    <t>Total MXN</t>
+  </si>
+  <si>
+    <t>Total USD</t>
   </si>
 </sst>
 </file>
@@ -190,7 +211,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -202,6 +223,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
@@ -737,10 +761,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90F5CC85-304A-472C-81F4-53AD9F111B6B}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -750,7 +774,7 @@
     <col min="8" max="8" width="11.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -773,12 +797,15 @@
         <v>31</v>
       </c>
       <c r="H1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+      <c r="I1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>28</v>
@@ -793,17 +820,20 @@
         <v>0.1</v>
       </c>
       <c r="F2" s="3">
-        <v>21.87</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
         <v>32</v>
       </c>
       <c r="H2" s="3">
         <f>(A2*D2)-((A2*D2)*E2)+F2</f>
-        <v>130.428</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+        <v>72.278999999999996</v>
+      </c>
+      <c r="I2" s="3">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -829,82 +859,137 @@
         <f>(A3*D3)-((A3*D3)*E3)+F3</f>
         <v>152.61000000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="D4" s="3"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="D5" s="3"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I3" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="3">
+        <v>69.2</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3">
+        <v>7.17</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="3">
+        <f t="shared" ref="H4:H6" si="0">(A4*D4)-((A4*D4)*E4)+F4</f>
+        <v>76.37</v>
+      </c>
+      <c r="I4" s="7">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="3">
+        <v>20.48</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3">
+        <v>7.17</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="3">
+        <f t="shared" si="0"/>
+        <v>27.65</v>
+      </c>
+      <c r="I5" s="7"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C6" s="1"/>
       <c r="D6" s="3"/>
       <c r="E6" s="6"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D7" s="3"/>
       <c r="E7" s="6"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="4">
-        <f>SUM(H2:H3)</f>
-        <v>283.03800000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+        <f>SUM(H2:H6)</f>
+        <v>328.90899999999999</v>
+      </c>
+      <c r="I14" s="4">
+        <f>SUM(I2:I6)</f>
+        <v>6460</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
     </row>
@@ -912,11 +997,16 @@
       <c r="E17" s="6"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="I4:I5"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{6F12C7A5-B02F-4E6E-A694-A10C0A1FCA75}"/>
     <hyperlink ref="C3" r:id="rId2" xr:uid="{3D473788-9556-40D4-921D-0F7AF3640AA9}"/>
+    <hyperlink ref="C5" r:id="rId3" xr:uid="{39BEC229-DFBF-43FF-8C5E-1A62D3049948}"/>
+    <hyperlink ref="C4" r:id="rId4" xr:uid="{D70C9F99-AB36-4D61-9B99-E3922591078D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId5"/>
 </worksheet>
 </file>
--- a/extras/BOMV2.xlsx
+++ b/extras/BOMV2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Trujillo\Documents\Thesis\extras\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F523CFBC-0F35-44D7-A158-C8DA575442BF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2176E9D7-3E9E-4460-8DF3-90BC20A0BF93}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{7319056F-CA78-4255-87F3-CCC1DAC46B99}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="43">
   <si>
     <t>Bill of materials</t>
   </si>
@@ -155,6 +155,12 @@
   </si>
   <si>
     <t>Total USD</t>
+  </si>
+  <si>
+    <t>Estado</t>
+  </si>
+  <si>
+    <t>Pendiente</t>
   </si>
 </sst>
 </file>
@@ -761,10 +767,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90F5CC85-304A-472C-81F4-53AD9F111B6B}">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -774,7 +780,7 @@
     <col min="8" max="8" width="11.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -802,8 +808,11 @@
       <c r="I1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -832,8 +841,11 @@
       <c r="I2" s="3">
         <v>1415</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -862,8 +874,11 @@
       <c r="I3" s="3">
         <v>3000</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1</v>
       </c>
@@ -886,14 +901,17 @@
         <v>37</v>
       </c>
       <c r="H4" s="3">
-        <f t="shared" ref="H4:H6" si="0">(A4*D4)-((A4*D4)*E4)+F4</f>
+        <f t="shared" ref="H4:H5" si="0">(A4*D4)-((A4*D4)*E4)+F4</f>
         <v>76.37</v>
       </c>
       <c r="I4" s="7">
         <v>2045</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1</v>
       </c>
@@ -920,8 +938,11 @@
         <v>27.65</v>
       </c>
       <c r="I5" s="7"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C6" s="1"/>
       <c r="D6" s="3"/>
       <c r="E6" s="6"/>
@@ -929,49 +950,49 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D7" s="3"/>
       <c r="E7" s="6"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
       <c r="F14" s="3"/>
@@ -985,11 +1006,11 @@
         <v>6460</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
     </row>
